--- a/biology/Botanique/Vulpin/Vulpin.xlsx
+++ b/biology/Botanique/Vulpin/Vulpin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alopecurus
 Alopecurus (les vulpins) est un genre de plantes monocotylédones de la famille des Poaceae (graminées), sous-famille des Pooideae, originaire des régions tempérées et froides, qui comprend une trentaine d'espèces. 
 Ce sont  des plantes herbacées, vivaces ou annuelles, rhizomateuses ou stolonifères, dont les tiges peuvent atteindre 110 cm de long. Les inflorescences sont des panicules contractées ou spiciformes. 
 Plusieurs espèces sont cultivées comme plantes fourragères. Certaines sont des adventices des champs de céréales à paille.
 Alopecurus est un mot d'origine grecque signifiant « queue de renard » (référence à la forme de l'épi). Le mot français « vulpin » a la même signification (du latin vulpes, le renard).
-Le nombre chromosomique de base est x = 7. Le niveau de ploïdie varie selon les espèces de 2n = 2x = 14 à 2n = 14 x = 98. Les espèces à haut niveau de ploïdie appartiennent aux régions montagneuses ou arctiques, alors que les espèces diploïdes ou tétraploïdes se trouvent dans les plaines et ont une aire de répartition bien plus vaste[3].
+Le nombre chromosomique de base est x = 7. Le niveau de ploïdie varie selon les espèces de 2n = 2x = 14 à 2n = 14 x = 98. Les espèces à haut niveau de ploïdie appartiennent aux régions montagneuses ou arctiques, alors que les espèces diploïdes ou tétraploïdes se trouvent dans les plaines et ont une aire de répartition bien plus vaste.
 </t>
         </is>
       </c>
@@ -516,9 +528,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (1 avril 2018)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (1 avril 2018) :
 Alopecurus aequalis Sobol.
 Alopecurus albovii Tzvelev
 Alopecurus alpestris Czerep.
